--- a/src/test/resources/testdata/excel/testdata1.xlsx
+++ b/src/test/resources/testdata/excel/testdata1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinesh.krishnan\IdeaProjects\Kame\src\test\resources\testdata\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F8B6A2-FEE3-46E6-A434-63913528ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70324E3A-3ABB-4770-A3D2-C0237CF89119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B19B115-F549-4F7C-8FC2-7337495A40B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,39 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Username</t>
+    <t>emailId</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>test@gmail.com</t>
   </si>
   <si>
-    <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>pass2</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://www.google.com/</t>
-  </si>
-  <si>
-    <t>https://facebook.com</t>
+    <t>gmail@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -142,13 +118,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -488,66 +461,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792AB25E-7A9B-45A7-8060-9E0166B1937F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{9ABE21F8-EAB2-4141-A2ED-BE16B3BAADEF}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{6ABD57D6-D649-4E5A-A804-F301E6DBB37D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F380AFFD-A9A2-450F-B259-EDA41CF63852}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{771A6C17-85F0-489C-8009-432883C2E599}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
